--- a/eq_log/eq_file/80002222.xlsx
+++ b/eq_log/eq_file/80002222.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -164,7 +164,25 @@
     <t>Обладнання не вмикається / не продукує виріб</t>
   </si>
   <si>
-    <t>1338</t>
+    <t>13/02/2018</t>
+  </si>
+  <si>
+    <t>150003</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>170150</t>
+  </si>
+  <si>
+    <t>175000</t>
+  </si>
+  <si>
+    <t>175001</t>
+  </si>
+  <si>
+    <t>195001</t>
   </si>
   <si>
     <t>**</t>
@@ -688,6 +706,9 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,9 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,9 +733,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
-    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
-    <cellStyle builtinId="26" name="Хороший" xfId="2"/>
+    <cellStyle builtinId="0" name="Звичайний" xfId="0"/>
+    <cellStyle builtinId="8" name="Гіперпосилання" xfId="1"/>
+    <cellStyle builtinId="26" name="Добре" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1014,8 +1032,8 @@
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1061,7 +1079,7 @@
       <c r="G2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="40" t="n">
+      <c r="H2" s="36" t="n">
         <v>150000</v>
       </c>
     </row>
@@ -1865,8 +1883,8 @@
       <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="D48" t="s">
-        <v>49</v>
+      <c r="D48" s="36" t="n">
+        <v>150001</v>
       </c>
       <c r="E48" s="31">
         <f>D48-D47</f>
@@ -1875,6 +1893,15 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="31">
@@ -1883,36 +1910,99 @@
       </c>
     </row>
     <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
       <c r="E50" s="31">
         <f>D50-D49</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
       <c r="E51" s="31">
         <f>D51-D50</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
       <c r="E52" s="31">
         <f>D52-D51</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
       <c r="E53" s="31">
         <f>D53-D52</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
       <c r="E54" s="31">
         <f>D54-D53</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
       <c r="E55" s="31">
         <f>D55-D54</f>
         <v/>
@@ -2000,23 +2090,23 @@
       </c>
       <c r="D1" s="46" t="n"/>
       <c r="E1" s="46" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="45" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2024,10 +2114,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2035,10 +2125,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2046,21 +2136,21 @@
         <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2068,210 +2158,210 @@
         <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="45" spans="1:5" thickBot="1">
       <c r="D17" s="13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="45" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="45" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="45" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/eq_file/80002222.xlsx
+++ b/eq_log/eq_file/80002222.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>195001</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>600000</t>
   </si>
   <si>
     <t>**</t>
@@ -2001,7 +2010,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
         <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
       </c>
       <c r="E55" s="31">
         <f>D55-D54</f>
@@ -2009,12 +2027,27 @@
       </c>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
       <c r="E56" s="31">
         <f>D56-D55</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
       <c r="E57" s="31">
         <f>D57-D56</f>
         <v/>
@@ -2090,23 +2123,23 @@
       </c>
       <c r="D1" s="46" t="n"/>
       <c r="E1" s="46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="45" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2114,10 +2147,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2125,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2136,21 +2169,21 @@
         <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2158,210 +2191,210 @@
         <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="45" spans="1:5" thickBot="1">
       <c r="D17" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="45" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="45" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="45" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/eq_file/80002222.xlsx
+++ b/eq_log/eq_file/80002222.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>600000</t>
+  </si>
+  <si>
+    <t>14/02/2018</t>
+  </si>
+  <si>
+    <t>600001</t>
   </si>
   <si>
     <t>**</t>
@@ -2048,12 +2054,24 @@
       <c r="A57" t="s">
         <v>59</v>
       </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
       <c r="E57" s="31">
         <f>D57-D56</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
       <c r="E58" s="31">
         <f>D58-D57</f>
         <v/>
@@ -2123,23 +2141,23 @@
       </c>
       <c r="D1" s="46" t="n"/>
       <c r="E1" s="46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="45" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2147,10 +2165,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2158,10 +2176,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2169,21 +2187,21 @@
         <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2191,210 +2209,210 @@
         <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="45" spans="1:5" thickBot="1">
       <c r="D17" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="45" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="45" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="45" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/eq_file/80002222.xlsx
+++ b/eq_log/eq_file/80002222.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -198,6 +198,48 @@
   </si>
   <si>
     <t>600001</t>
+  </si>
+  <si>
+    <t>20/02/2018</t>
+  </si>
+  <si>
+    <t>600002</t>
+  </si>
+  <si>
+    <t>600003</t>
+  </si>
+  <si>
+    <t>600004</t>
+  </si>
+  <si>
+    <t>600005</t>
+  </si>
+  <si>
+    <t>600006</t>
+  </si>
+  <si>
+    <t>600007</t>
+  </si>
+  <si>
+    <t>600008</t>
+  </si>
+  <si>
+    <t>600009</t>
+  </si>
+  <si>
+    <t>600010</t>
+  </si>
+  <si>
+    <t>600011</t>
+  </si>
+  <si>
+    <t>600012</t>
+  </si>
+  <si>
+    <t>600013</t>
+  </si>
+  <si>
+    <t>600014</t>
   </si>
   <si>
     <t>**</t>
@@ -1045,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2072,39 +2114,211 @@
       <c r="A58" t="s">
         <v>61</v>
       </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
       <c r="E58" s="31">
         <f>D58-D57</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
       <c r="E59" s="31">
         <f>D59-D58</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
       <c r="E60" s="31">
         <f>D60-D59</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
       <c r="E61" s="31">
         <f>D61-D60</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
       <c r="E62" s="31">
         <f>D62-D61</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
       <c r="E63" s="31">
         <f>D63-D62</f>
         <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2141,23 +2355,23 @@
       </c>
       <c r="D1" s="46" t="n"/>
       <c r="E1" s="46" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="45" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2165,10 +2379,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2176,10 +2390,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2187,21 +2401,21 @@
         <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2209,210 +2423,210 @@
         <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="45" spans="1:5" thickBot="1">
       <c r="D17" s="13" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="45" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="45" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="45" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
